--- a/theory/task-3/source.xlsx
+++ b/theory/task-3/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B428B0-DAF0-4605-AB73-9E53CC052FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A39D68-BE9B-408B-BB86-28802DBB7741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D798DFB0-F842-4B22-9309-BC4C1992532D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <t xml:space="preserve">t: </t>
@@ -126,26 +126,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">f: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ f : </t>
+      <t xml:space="preserve">t: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ t.1 : </t>
     </r>
     <r>
       <rPr>
@@ -156,7 +156,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>{a: Nat, b: Bool}</t>
+      <t>Nat</t>
     </r>
   </si>
   <si>
@@ -171,16 +171,16 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Nat × Bool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ t.1 : </t>
+      <t xml:space="preserve">Nat × Bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">⊢ t.2 : </t>
     </r>
     <r>
       <rPr>
@@ -191,321 +191,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Nat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">t: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nat × Bool </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">⊢ t.2 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>Bool</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">⊢ λf: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>. (f {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">succ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">iszero </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(f {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">}).a}).b : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>{a: Nat, b: Bool} → Bool</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">⊢ (λf: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>. (f {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>succ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>iszero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (f {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">}).a}).b) (λt: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">× </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. {a = t.1, b = t.2}) : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Nat × Bool) → Bool</t>
     </r>
   </si>
   <si>
@@ -513,80 +199,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">f: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ (f {succ 0, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>iszero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (f {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">}).a}).b : </t>
+      <t xml:space="preserve">t: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nat × Bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">⊢ t : </t>
     </r>
     <r>
       <rPr>
@@ -597,121 +229,31 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Bool</t>
+      <t xml:space="preserve">Nat × Bool </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">f: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>succ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>iszero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (f {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">}).a} : </t>
+      <t xml:space="preserve">t: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ t : </t>
     </r>
     <r>
       <rPr>
@@ -722,31 +264,31 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>{a: Nat, b: Bool}</t>
+      <t xml:space="preserve">Nat × Bool </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">f: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ </t>
+      <t xml:space="preserve">⊢ (λf: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>. (f {</t>
     </r>
     <r>
       <rPr>
@@ -782,7 +324,99 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> : </t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>iszero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (f {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">}).a}).b) (λt: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">× </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. {a = t.1, b = t.2}) : </t>
     </r>
     <r>
       <rPr>
@@ -793,31 +427,31 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Nat</t>
+      <t>Bool</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">f: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ </t>
+      <t xml:space="preserve">⊢ λf: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>. (f {</t>
     </r>
     <r>
       <rPr>
@@ -826,16 +460,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>iszero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (f {</t>
+      <t xml:space="preserve">succ </t>
     </r>
     <r>
       <rPr>
@@ -862,6 +487,42 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">iszero </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(f {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>false</t>
     </r>
     <r>
@@ -871,7 +532,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">}).a : </t>
+      <t xml:space="preserve">}).a}).b : </t>
     </r>
     <r>
       <rPr>
@@ -882,7 +543,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Bool</t>
+      <t>Nat × Bool → {a: Nat, b: Bool} → Bool</t>
     </r>
   </si>
   <si>
@@ -897,63 +558,47 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ f : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ (f {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">}).a : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nat</t>
     </r>
   </si>
   <si>
@@ -968,16 +613,34 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ f {</t>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>succ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1004,6 +667,42 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>iszero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (f {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>false</t>
     </r>
     <r>
@@ -1013,7 +712,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">} : </t>
+      <t xml:space="preserve">}).a} : </t>
     </r>
     <r>
       <rPr>
@@ -1024,7 +723,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>{a: Nat, b: Bool}</t>
+      <t>Nat × Bool</t>
     </r>
   </si>
   <si>
@@ -1039,16 +738,34 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>{a: Nat, b: Bool}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ⊢ {</t>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>succ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1066,25 +783,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">} : </t>
+      <t xml:space="preserve"> : </t>
     </r>
     <r>
       <rPr>
@@ -1095,7 +794,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>{a: Nat, b: Bool}</t>
+      <t>Nat</t>
     </r>
   </si>
   <si>
@@ -1110,7 +809,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>{a: Nat, b: Bool}</t>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
     </r>
     <r>
       <rPr>
@@ -1148,7 +847,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Nat</t>
+      <t>Nat</t>
     </r>
   </si>
   <si>
@@ -1163,8 +862,345 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>iszero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (f {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">}).a : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ (f {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">}).a : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ f {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">} : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>{a: Nat, b: Bool}</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ f : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool → {a: Nat, b: Bool}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nat × Bool →  {a: Nat, b: Bool} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>⊢ {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">} : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1177,6 +1213,59 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Nat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Cambria"/>
         <family val="1"/>
@@ -1202,6 +1291,220 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> Bool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ f {succ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>iszero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (f {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">}).a} : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>{a: Nat, b: Bool}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nat × Bool →  {a: Nat, b: Bool}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ⊢ (f {succ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>iszero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (f {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">}).a}).b : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bool</t>
     </r>
   </si>
 </sst>
@@ -1298,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1306,7 +1609,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,12 +1618,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1632,76 +1952,76 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B9:Q22"/>
+  <dimension ref="B10:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="27.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="2.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="4.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>7</v>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H14" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F15" s="2" t="s">
-        <v>2</v>
+      <c r="F15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1709,32 +2029,35 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>2</v>
+    <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1742,90 +2065,114 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="11"/>
+      <c r="L20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>4</v>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="L20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="L21" s="5" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="L22" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
     </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>6</v>
+    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:Q23"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F18:J18"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="N19:Q19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
